--- a/salidas/vigas/Planilla_Vigas_Portico.xlsx
+++ b/salidas/vigas/Planilla_Vigas_Portico.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="resultados_Portico 7_vigas" sheetId="1" r:id="rId1"/>
+    <sheet name="resultados_Portico 1_vigas" sheetId="1" r:id="rId1"/>
     <sheet name="resultados_Portico 8_vigas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -949,7 +949,7 @@
         <v>85</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -964,70 +964,70 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2">
-        <v>0.4</v>
+        <v>0.3782999999999999</v>
       </c>
       <c r="L2">
-        <v>960</v>
+        <v>907.9199999999998</v>
       </c>
       <c r="M2">
-        <v>8.710000000000001</v>
+        <v>5.77</v>
       </c>
       <c r="N2">
-        <v>9.424777960769379</v>
+        <v>6.031857894892403</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2">
-        <v>106666.6666666667</v>
+        <v>98865</v>
       </c>
       <c r="Q2">
-        <v>96317.16087554395</v>
+        <v>79735.14710987511</v>
       </c>
       <c r="R2">
-        <v>0.9029733832082243</v>
+        <v>0.8065053063255461</v>
       </c>
       <c r="S2">
-        <v>18.91768724133377</v>
+        <v>16.66363867253076</v>
       </c>
       <c r="T2">
-        <v>14.04647451330573</v>
+        <v>11.61474741659619</v>
       </c>
       <c r="U2" t="s">
         <v>87</v>
       </c>
       <c r="V2">
-        <v>17.43432707217442</v>
+        <v>19.82966675680652</v>
       </c>
       <c r="W2">
-        <v>13.88888888888889</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>65991.3941510388</v>
+        <v>46056.02346466629</v>
       </c>
       <c r="Z2">
-        <v>120498.7777994087</v>
+        <v>108615.6211051218</v>
       </c>
       <c r="AA2">
-        <v>132787.0774006894</v>
+        <v>118212.9204050461</v>
       </c>
       <c r="AB2" t="s">
         <v>88</v>
       </c>
       <c r="AC2">
-        <v>-135.24</v>
+        <v>-101.8192009704092</v>
       </c>
       <c r="AD2">
-        <v>164.71</v>
+        <v>120.834594651463</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH2">
         <v>280</v>
       </c>
       <c r="AI2">
-        <v>314.1592653589793</v>
+        <v>201.0619298297468</v>
       </c>
       <c r="AJ2">
-        <v>0.096420050627979</v>
+        <v>0.08196927443267445</v>
       </c>
       <c r="AK2">
         <v>0.1</v>
@@ -1066,16 +1066,16 @@
         <v>91</v>
       </c>
       <c r="AQ2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR2">
         <v>5</v>
       </c>
       <c r="AS2">
-        <v>0.8</v>
+        <v>0.918</v>
       </c>
       <c r="AT2">
-        <v>3.552</v>
+        <v>2.83203</v>
       </c>
       <c r="AU2">
         <v>2</v>
@@ -1084,16 +1084,16 @@
         <v>93</v>
       </c>
       <c r="AW2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AX2">
         <v>1</v>
       </c>
       <c r="AY2">
-        <v>3.14</v>
+        <v>3.784</v>
       </c>
       <c r="AZ2">
-        <v>7.743240000000001</v>
+        <v>5.971152000000001</v>
       </c>
       <c r="BA2">
         <v>3</v>
@@ -1102,16 +1102,16 @@
         <v>95</v>
       </c>
       <c r="BC2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BD2">
         <v>2</v>
       </c>
       <c r="BE2">
-        <v>5.48</v>
+        <v>5.234</v>
       </c>
       <c r="BF2">
-        <v>27.02736000000001</v>
+        <v>16.518504</v>
       </c>
       <c r="BG2">
         <v>4</v>
@@ -1123,13 +1123,13 @@
         <v>20</v>
       </c>
       <c r="BJ2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BK2">
-        <v>2.82</v>
+        <v>1.732</v>
       </c>
       <c r="BL2">
-        <v>27.81648000000001</v>
+        <v>12.813336</v>
       </c>
       <c r="BM2">
         <v>5</v>
@@ -1144,10 +1144,10 @@
         <v>2</v>
       </c>
       <c r="BQ2">
-        <v>5.24</v>
+        <v>5.09</v>
       </c>
       <c r="BR2">
-        <v>4.139600000000001</v>
+        <v>4.0211</v>
       </c>
       <c r="BS2" t="s">
         <v>98</v>
@@ -1156,16 +1156,16 @@
         <v>6</v>
       </c>
       <c r="BU2">
+        <v>21</v>
+      </c>
+      <c r="BV2">
         <v>16</v>
       </c>
-      <c r="BV2">
-        <v>18</v>
-      </c>
       <c r="BW2">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="BX2">
-        <v>3.76512</v>
+        <v>4.84848</v>
       </c>
       <c r="BY2" t="s">
         <v>100</v>
@@ -1174,16 +1174,16 @@
         <v>6</v>
       </c>
       <c r="CA2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="CB2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CC2">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="CD2">
-        <v>5.17704</v>
+        <v>3.00144</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -1197,7 +1197,7 @@
         <v>86</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1212,22 +1212,22 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3">
-        <v>0.08</v>
+        <v>0.0624</v>
       </c>
       <c r="L3">
-        <v>192</v>
+        <v>149.76</v>
       </c>
       <c r="M3">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="N3">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -1248,16 +1248,16 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.2287250288786271</v>
+        <v>0.09971727973625456</v>
       </c>
       <c r="W3">
-        <v>5.555555555555555</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="X3" t="b">
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>113986.6556239201</v>
+        <v>104966.8190389107</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>71.98999999999999</v>
+        <v>62.02640054726612</v>
       </c>
       <c r="AF3" t="b">
         <v>1</v>
@@ -1299,16 +1299,16 @@
         <v>92</v>
       </c>
       <c r="AQ3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AR3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS3">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="AT3">
-        <v>3.94272</v>
+        <v>2.6544</v>
       </c>
       <c r="AU3">
         <v>2</v>
@@ -1323,10 +1323,10 @@
         <v>2</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AZ3">
-        <v>1.234</v>
+        <v>0.9872000000000001</v>
       </c>
       <c r="BS3" t="s">
         <v>99</v>
@@ -1341,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="BW3">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="BX3">
-        <v>0.70596</v>
+        <v>0.69264</v>
       </c>
       <c r="BY3" t="s">
         <v>101</v>
@@ -1353,16 +1353,16 @@
         <v>6</v>
       </c>
       <c r="CA3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CB3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="CC3">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="CD3">
-        <v>0.94128</v>
+        <v>0.69264</v>
       </c>
     </row>
   </sheetData>
